--- a/stock/data/LG에너지솔루션.xlsx
+++ b/stock/data/LG에너지솔루션.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12750,10 +12750,769 @@
         <v>395000</v>
       </c>
       <c r="F535" t="n">
-        <v>199385</v>
+        <v>200531</v>
       </c>
       <c r="G535" t="n">
         <v>-1.61892901618929</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B536" t="n">
+        <v>395000</v>
+      </c>
+      <c r="C536" t="n">
+        <v>398500</v>
+      </c>
+      <c r="D536" t="n">
+        <v>392500</v>
+      </c>
+      <c r="E536" t="n">
+        <v>395500</v>
+      </c>
+      <c r="F536" t="n">
+        <v>105333</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.1265822784810127</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B537" t="n">
+        <v>395500</v>
+      </c>
+      <c r="C537" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D537" t="n">
+        <v>392500</v>
+      </c>
+      <c r="E537" t="n">
+        <v>393000</v>
+      </c>
+      <c r="F537" t="n">
+        <v>163860</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-0.6321112515802781</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B538" t="n">
+        <v>391500</v>
+      </c>
+      <c r="C538" t="n">
+        <v>391500</v>
+      </c>
+      <c r="D538" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E538" t="n">
+        <v>376000</v>
+      </c>
+      <c r="F538" t="n">
+        <v>365852</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-4.325699745547073</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B539" t="n">
+        <v>379500</v>
+      </c>
+      <c r="C539" t="n">
+        <v>384000</v>
+      </c>
+      <c r="D539" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E539" t="n">
+        <v>379500</v>
+      </c>
+      <c r="F539" t="n">
+        <v>175633</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.9308510638297872</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B540" t="n">
+        <v>375500</v>
+      </c>
+      <c r="C540" t="n">
+        <v>380000</v>
+      </c>
+      <c r="D540" t="n">
+        <v>373000</v>
+      </c>
+      <c r="E540" t="n">
+        <v>376000</v>
+      </c>
+      <c r="F540" t="n">
+        <v>152154</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-0.922266139657444</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B541" t="n">
+        <v>374000</v>
+      </c>
+      <c r="C541" t="n">
+        <v>375500</v>
+      </c>
+      <c r="D541" t="n">
+        <v>358000</v>
+      </c>
+      <c r="E541" t="n">
+        <v>373000</v>
+      </c>
+      <c r="F541" t="n">
+        <v>307183</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-0.7978723404255319</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B542" t="n">
+        <v>376500</v>
+      </c>
+      <c r="C542" t="n">
+        <v>382500</v>
+      </c>
+      <c r="D542" t="n">
+        <v>372500</v>
+      </c>
+      <c r="E542" t="n">
+        <v>374000</v>
+      </c>
+      <c r="F542" t="n">
+        <v>180102</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.2680965147453083</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B543" t="n">
+        <v>368500</v>
+      </c>
+      <c r="C543" t="n">
+        <v>380000</v>
+      </c>
+      <c r="D543" t="n">
+        <v>365000</v>
+      </c>
+      <c r="E543" t="n">
+        <v>380000</v>
+      </c>
+      <c r="F543" t="n">
+        <v>341170</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1.60427807486631</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B544" t="n">
+        <v>380000</v>
+      </c>
+      <c r="C544" t="n">
+        <v>381500</v>
+      </c>
+      <c r="D544" t="n">
+        <v>371500</v>
+      </c>
+      <c r="E544" t="n">
+        <v>371500</v>
+      </c>
+      <c r="F544" t="n">
+        <v>172629</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-2.236842105263158</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B545" t="n">
+        <v>367000</v>
+      </c>
+      <c r="C545" t="n">
+        <v>377000</v>
+      </c>
+      <c r="D545" t="n">
+        <v>365500</v>
+      </c>
+      <c r="E545" t="n">
+        <v>373000</v>
+      </c>
+      <c r="F545" t="n">
+        <v>106708</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.4037685060565276</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B546" t="n">
+        <v>368000</v>
+      </c>
+      <c r="C546" t="n">
+        <v>372500</v>
+      </c>
+      <c r="D546" t="n">
+        <v>366000</v>
+      </c>
+      <c r="E546" t="n">
+        <v>366000</v>
+      </c>
+      <c r="F546" t="n">
+        <v>119203</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-1.876675603217158</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B547" t="n">
+        <v>366000</v>
+      </c>
+      <c r="C547" t="n">
+        <v>372000</v>
+      </c>
+      <c r="D547" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E547" t="n">
+        <v>364500</v>
+      </c>
+      <c r="F547" t="n">
+        <v>99287</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-0.4098360655737705</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B548" t="n">
+        <v>364000</v>
+      </c>
+      <c r="C548" t="n">
+        <v>378500</v>
+      </c>
+      <c r="D548" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E548" t="n">
+        <v>377000</v>
+      </c>
+      <c r="F548" t="n">
+        <v>156443</v>
+      </c>
+      <c r="G548" t="n">
+        <v>3.429355281207133</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B549" t="n">
+        <v>372000</v>
+      </c>
+      <c r="C549" t="n">
+        <v>372000</v>
+      </c>
+      <c r="D549" t="n">
+        <v>364500</v>
+      </c>
+      <c r="E549" t="n">
+        <v>367000</v>
+      </c>
+      <c r="F549" t="n">
+        <v>143664</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-2.652519893899204</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B550" t="n">
+        <v>373000</v>
+      </c>
+      <c r="C550" t="n">
+        <v>378500</v>
+      </c>
+      <c r="D550" t="n">
+        <v>369000</v>
+      </c>
+      <c r="E550" t="n">
+        <v>378500</v>
+      </c>
+      <c r="F550" t="n">
+        <v>144221</v>
+      </c>
+      <c r="G550" t="n">
+        <v>3.133514986376022</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B551" t="n">
+        <v>377000</v>
+      </c>
+      <c r="C551" t="n">
+        <v>379000</v>
+      </c>
+      <c r="D551" t="n">
+        <v>370000</v>
+      </c>
+      <c r="E551" t="n">
+        <v>370000</v>
+      </c>
+      <c r="F551" t="n">
+        <v>121904</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-2.245706737120211</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B552" t="n">
+        <v>380500</v>
+      </c>
+      <c r="C552" t="n">
+        <v>389500</v>
+      </c>
+      <c r="D552" t="n">
+        <v>378000</v>
+      </c>
+      <c r="E552" t="n">
+        <v>385000</v>
+      </c>
+      <c r="F552" t="n">
+        <v>241390</v>
+      </c>
+      <c r="G552" t="n">
+        <v>4.054054054054054</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B553" t="n">
+        <v>380000</v>
+      </c>
+      <c r="C553" t="n">
+        <v>381000</v>
+      </c>
+      <c r="D553" t="n">
+        <v>372000</v>
+      </c>
+      <c r="E553" t="n">
+        <v>372500</v>
+      </c>
+      <c r="F553" t="n">
+        <v>176196</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-3.246753246753246</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B554" t="n">
+        <v>373000</v>
+      </c>
+      <c r="C554" t="n">
+        <v>375000</v>
+      </c>
+      <c r="D554" t="n">
+        <v>367500</v>
+      </c>
+      <c r="E554" t="n">
+        <v>372000</v>
+      </c>
+      <c r="F554" t="n">
+        <v>143701</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-0.1342281879194631</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B555" t="n">
+        <v>375000</v>
+      </c>
+      <c r="C555" t="n">
+        <v>378500</v>
+      </c>
+      <c r="D555" t="n">
+        <v>372000</v>
+      </c>
+      <c r="E555" t="n">
+        <v>378500</v>
+      </c>
+      <c r="F555" t="n">
+        <v>150391</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1.747311827956989</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B556" t="n">
+        <v>382500</v>
+      </c>
+      <c r="C556" t="n">
+        <v>390000</v>
+      </c>
+      <c r="D556" t="n">
+        <v>382500</v>
+      </c>
+      <c r="E556" t="n">
+        <v>389000</v>
+      </c>
+      <c r="F556" t="n">
+        <v>276918</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2.774108322324967</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B557" t="n">
+        <v>385000</v>
+      </c>
+      <c r="C557" t="n">
+        <v>392000</v>
+      </c>
+      <c r="D557" t="n">
+        <v>381000</v>
+      </c>
+      <c r="E557" t="n">
+        <v>389000</v>
+      </c>
+      <c r="F557" t="n">
+        <v>121266</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B558" t="n">
+        <v>391000</v>
+      </c>
+      <c r="C558" t="n">
+        <v>394000</v>
+      </c>
+      <c r="D558" t="n">
+        <v>387000</v>
+      </c>
+      <c r="E558" t="n">
+        <v>391000</v>
+      </c>
+      <c r="F558" t="n">
+        <v>121565</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.5141388174807198</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B559" t="n">
+        <v>394500</v>
+      </c>
+      <c r="C559" t="n">
+        <v>397000</v>
+      </c>
+      <c r="D559" t="n">
+        <v>390500</v>
+      </c>
+      <c r="E559" t="n">
+        <v>391500</v>
+      </c>
+      <c r="F559" t="n">
+        <v>117367</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.1278772378516624</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B560" t="n">
+        <v>391000</v>
+      </c>
+      <c r="C560" t="n">
+        <v>395000</v>
+      </c>
+      <c r="D560" t="n">
+        <v>387500</v>
+      </c>
+      <c r="E560" t="n">
+        <v>393000</v>
+      </c>
+      <c r="F560" t="n">
+        <v>144291</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.3831417624521072</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B561" t="n">
+        <v>390000</v>
+      </c>
+      <c r="C561" t="n">
+        <v>393000</v>
+      </c>
+      <c r="D561" t="n">
+        <v>383000</v>
+      </c>
+      <c r="E561" t="n">
+        <v>388500</v>
+      </c>
+      <c r="F561" t="n">
+        <v>239286</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-1.145038167938931</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B562" t="n">
+        <v>390500</v>
+      </c>
+      <c r="C562" t="n">
+        <v>390500</v>
+      </c>
+      <c r="D562" t="n">
+        <v>383500</v>
+      </c>
+      <c r="E562" t="n">
+        <v>383500</v>
+      </c>
+      <c r="F562" t="n">
+        <v>115093</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-1.287001287001287</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B563" t="n">
+        <v>384000</v>
+      </c>
+      <c r="C563" t="n">
+        <v>384500</v>
+      </c>
+      <c r="D563" t="n">
+        <v>379000</v>
+      </c>
+      <c r="E563" t="n">
+        <v>381500</v>
+      </c>
+      <c r="F563" t="n">
+        <v>125868</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-0.5215123859191656</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B564" t="n">
+        <v>382500</v>
+      </c>
+      <c r="C564" t="n">
+        <v>388000</v>
+      </c>
+      <c r="D564" t="n">
+        <v>382500</v>
+      </c>
+      <c r="E564" t="n">
+        <v>385500</v>
+      </c>
+      <c r="F564" t="n">
+        <v>119763</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1.048492791612058</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B565" t="n">
+        <v>389000</v>
+      </c>
+      <c r="C565" t="n">
+        <v>390000</v>
+      </c>
+      <c r="D565" t="n">
+        <v>381500</v>
+      </c>
+      <c r="E565" t="n">
+        <v>381500</v>
+      </c>
+      <c r="F565" t="n">
+        <v>140797</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-1.037613488975357</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B566" t="n">
+        <v>381500</v>
+      </c>
+      <c r="C566" t="n">
+        <v>384000</v>
+      </c>
+      <c r="D566" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E566" t="n">
+        <v>376500</v>
+      </c>
+      <c r="F566" t="n">
+        <v>175717</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-1.310615989515072</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B567" t="n">
+        <v>379000</v>
+      </c>
+      <c r="C567" t="n">
+        <v>379500</v>
+      </c>
+      <c r="D567" t="n">
+        <v>370000</v>
+      </c>
+      <c r="E567" t="n">
+        <v>372000</v>
+      </c>
+      <c r="F567" t="n">
+        <v>159484</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-1.195219123505976</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B568" t="n">
+        <v>367500</v>
+      </c>
+      <c r="C568" t="n">
+        <v>370000</v>
+      </c>
+      <c r="D568" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E568" t="n">
+        <v>364500</v>
+      </c>
+      <c r="F568" t="n">
+        <v>218812</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-2.016129032258065</v>
       </c>
     </row>
   </sheetData>
